--- a/HCL_HRIS/Files/Uploads/Copy of KAISER CLOSET Agents and Team Lead Score card - Dec'19.xlsx
+++ b/HCL_HRIS/Files/Uploads/Copy of KAISER CLOSET Agents and Team Lead Score card - Dec'19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChristianJohn.Banal\Desktop\Upload This\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChristianJohn.Banal\source\repos\HCL_HRIS\HCL_HRIS\Files\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,6 +30,9 @@
     <sheet name="ABAY Scorecard" sheetId="23" r:id="rId16"/>
     <sheet name="TL Scorecard" sheetId="14" r:id="rId17"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId18"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'ABAY Scorecard'!$A$9:$X$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Agent Scorecard'!$A$9:$AA$18</definedName>
@@ -3258,6 +3261,12 @@
     <xf numFmtId="9" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="11" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3274,12 +3283,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3486,6 +3489,230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>51764660</v>
+          </cell>
+          <cell r="D2">
+            <v>16</v>
+          </cell>
+          <cell r="E2">
+            <v>450</v>
+          </cell>
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>51709110</v>
+          </cell>
+          <cell r="D3">
+            <v>20</v>
+          </cell>
+          <cell r="E3">
+            <v>568</v>
+          </cell>
+          <cell r="F3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>51785245</v>
+          </cell>
+          <cell r="D4">
+            <v>20</v>
+          </cell>
+          <cell r="E4">
+            <v>652</v>
+          </cell>
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>51790902</v>
+          </cell>
+          <cell r="D5">
+            <v>21</v>
+          </cell>
+          <cell r="E5">
+            <v>981</v>
+          </cell>
+          <cell r="F5">
+            <v>0.99795709908069463</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>51718513</v>
+          </cell>
+          <cell r="D6">
+            <v>21</v>
+          </cell>
+          <cell r="E6">
+            <v>763</v>
+          </cell>
+          <cell r="F6">
+            <v>0.99606815203145482</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>51725455</v>
+          </cell>
+          <cell r="D7">
+            <v>17</v>
+          </cell>
+          <cell r="E7">
+            <v>379</v>
+          </cell>
+          <cell r="F7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>51764512</v>
+          </cell>
+          <cell r="D8">
+            <v>21</v>
+          </cell>
+          <cell r="E8">
+            <v>706</v>
+          </cell>
+          <cell r="F8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>51725134</v>
+          </cell>
+          <cell r="D9">
+            <v>16</v>
+          </cell>
+          <cell r="E9">
+            <v>627</v>
+          </cell>
+          <cell r="F9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>51743021</v>
+          </cell>
+          <cell r="D10">
+            <v>14</v>
+          </cell>
+          <cell r="E10">
+            <v>511</v>
+          </cell>
+          <cell r="F10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>51803955</v>
+          </cell>
+          <cell r="D11">
+            <v>15</v>
+          </cell>
+          <cell r="E11">
+            <v>502</v>
+          </cell>
+          <cell r="F11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>51697023</v>
+          </cell>
+          <cell r="D12">
+            <v>17</v>
+          </cell>
+          <cell r="E12">
+            <v>504</v>
+          </cell>
+          <cell r="F12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>51803947</v>
+          </cell>
+          <cell r="D13">
+            <v>21</v>
+          </cell>
+          <cell r="E13">
+            <v>804</v>
+          </cell>
+          <cell r="F13">
+            <v>0.99743260590500638</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>51718193</v>
+          </cell>
+          <cell r="D14">
+            <v>18</v>
+          </cell>
+          <cell r="E14">
+            <v>666</v>
+          </cell>
+          <cell r="F14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>51765992</v>
+          </cell>
+          <cell r="D15">
+            <v>21</v>
+          </cell>
+          <cell r="E15">
+            <v>1106</v>
+          </cell>
+          <cell r="F15">
+            <v>0.99811320754716981</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>51721824</v>
+          </cell>
+          <cell r="D16">
+            <v>20</v>
+          </cell>
+          <cell r="E16">
+            <v>854</v>
+          </cell>
+          <cell r="F16">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8806,7 +9033,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -10034,15 +10261,41 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X18"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:24">
+    <row r="1" spans="1:24" hidden="1"/>
+    <row r="2" spans="1:24" hidden="1">
       <c r="E2" t="s">
         <v>67</v>
       </c>
@@ -10056,7 +10309,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" hidden="1">
       <c r="D3" t="s">
         <v>71</v>
       </c>
@@ -10073,7 +10326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" hidden="1">
       <c r="D4" t="s">
         <v>72</v>
       </c>
@@ -10089,7 +10342,7 @@
       <c r="H4">
         <v>0.3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="43">
         <v>0.4</v>
       </c>
       <c r="J4">
@@ -10102,7 +10355,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" hidden="1">
       <c r="D5" t="s">
         <v>73</v>
       </c>
@@ -10125,7 +10378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" hidden="1">
       <c r="D6" t="s">
         <v>75</v>
       </c>
@@ -10141,7 +10394,7 @@
       <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="43" t="s">
         <v>47</v>
       </c>
       <c r="J6" t="s">
@@ -10154,7 +10407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" hidden="1">
       <c r="D7" t="s">
         <v>79</v>
       </c>
@@ -10170,7 +10423,7 @@
       <c r="H7">
         <v>0.95</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="43">
         <v>0.995</v>
       </c>
       <c r="J7">
@@ -10183,6 +10436,7 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="8" spans="1:24" hidden="1"/>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>0</v>
@@ -10208,7 +10462,7 @@
       <c r="H9" t="s">
         <v>81</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="43" t="s">
         <v>660</v>
       </c>
       <c r="J9" t="s">
@@ -10259,7 +10513,8 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>51765992</v>
+        <f>[1]Sheet1!$C2</f>
+        <v>51764660</v>
       </c>
       <c r="B10" t="s">
         <v>197</v>
@@ -10277,15 +10532,19 @@
         <v>230</v>
       </c>
       <c r="G10">
-        <v>40.578947368421055</v>
+        <f>[1]Sheet1!$E2/[1]Sheet1!$D2</f>
+        <v>28.125</v>
       </c>
       <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>0.99740596627756162</v>
-      </c>
-      <c r="J10">
+        <f>IF(G10&gt;47.52,5,IF(AND(G10&gt;=45.54,G10&lt;=47.51),4,IF(AND(G10&gt;=39.6,G10&lt;=45.53),3,IF(AND(G10&gt;35.64,G10&lt;=39.59),2,IF(G10&lt;=35.63,1,0)))))</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="43">
+        <f>[1]Sheet1!$F2</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="62">
+        <f>IF(I10&gt;98%,5,IF(AND(I10&gt;=97%,I10&lt;=97.99%),4,IF(AND(I10&gt;=95%,I10&lt;=96.99%),3,IF(I10&lt;95%,1,0))))</f>
         <v>5</v>
       </c>
       <c r="K10">
@@ -10332,8 +10591,9 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11">
-        <v>51803955</v>
+      <c r="A11" s="14">
+        <f>[1]Sheet1!$C3</f>
+        <v>51709110</v>
       </c>
       <c r="B11" t="s">
         <v>201</v>
@@ -10350,16 +10610,20 @@
       <c r="F11" t="s">
         <v>230</v>
       </c>
-      <c r="G11">
-        <v>27.857142857142858</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="G11" s="14">
+        <f>[1]Sheet1!$E3/[1]Sheet1!$D3</f>
+        <v>28.4</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" ref="H11:H24" si="0">IF(G11&gt;47.52,5,IF(AND(G11&gt;=45.54,G11&lt;=47.51),4,IF(AND(G11&gt;=39.6,G11&lt;=45.53),3,IF(AND(G11&gt;35.64,G11&lt;=39.59),2,IF(G11&lt;=35.63,1,0)))))</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="43">
+        <f>[1]Sheet1!$F3</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="62">
+        <f t="shared" ref="J11:J25" si="1">IF(I11&gt;98%,5,IF(AND(I11&gt;=97%,I11&lt;=97.99%),4,IF(AND(I11&gt;=95%,I11&lt;=96.99%),3,IF(I11&lt;95%,1,0))))</f>
         <v>5</v>
       </c>
       <c r="K11">
@@ -10406,8 +10670,9 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12">
-        <v>51803947</v>
+      <c r="A12" s="14">
+        <f>[1]Sheet1!$C4</f>
+        <v>51785245</v>
       </c>
       <c r="B12" t="s">
         <v>202</v>
@@ -10424,16 +10689,20 @@
       <c r="F12" t="s">
         <v>230</v>
       </c>
-      <c r="G12">
-        <v>40.523809523809526</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>0.99177438307873089</v>
-      </c>
-      <c r="J12">
+      <c r="G12" s="14">
+        <f>[1]Sheet1!$E4/[1]Sheet1!$D4</f>
+        <v>32.6</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="43">
+        <f>[1]Sheet1!$F4</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="62">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K12">
@@ -10480,8 +10749,9 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13">
-        <v>51697023</v>
+      <c r="A13" s="14">
+        <f>[1]Sheet1!$C5</f>
+        <v>51790902</v>
       </c>
       <c r="B13" t="s">
         <v>159</v>
@@ -10498,16 +10768,20 @@
       <c r="F13" t="s">
         <v>230</v>
       </c>
-      <c r="G13">
-        <v>25.428571428571427</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="G13" s="14">
+        <f>[1]Sheet1!$E5/[1]Sheet1!$D5</f>
+        <v>46.714285714285715</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="43">
+        <f>[1]Sheet1!$F5</f>
+        <v>0.99795709908069463</v>
+      </c>
+      <c r="J13" s="62">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K13">
@@ -10554,8 +10828,9 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14">
-        <v>51764512</v>
+      <c r="A14" s="14">
+        <f>[1]Sheet1!$C6</f>
+        <v>51718513</v>
       </c>
       <c r="B14" t="s">
         <v>194</v>
@@ -10572,16 +10847,20 @@
       <c r="F14" t="s">
         <v>230</v>
       </c>
-      <c r="G14">
-        <v>26.526315789473685</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="G14" s="14">
+        <f>[1]Sheet1!$E6/[1]Sheet1!$D6</f>
+        <v>36.333333333333336</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="43">
+        <f>[1]Sheet1!$F6</f>
+        <v>0.99606815203145482</v>
+      </c>
+      <c r="J14" s="62">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K14">
@@ -10628,8 +10907,9 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15">
-        <v>51709110</v>
+      <c r="A15" s="14">
+        <f>[1]Sheet1!$C7</f>
+        <v>51725455</v>
       </c>
       <c r="B15" t="s">
         <v>166</v>
@@ -10646,16 +10926,20 @@
       <c r="F15" t="s">
         <v>230</v>
       </c>
-      <c r="G15">
-        <v>24.09090909090909</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="G15" s="14">
+        <f>[1]Sheet1!$E7/[1]Sheet1!$D7</f>
+        <v>22.294117647058822</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="43">
+        <f>[1]Sheet1!$F7</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="62">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K15">
@@ -10702,8 +10986,9 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16">
-        <v>51764660</v>
+      <c r="A16" s="14">
+        <f>[1]Sheet1!$C8</f>
+        <v>51764512</v>
       </c>
       <c r="B16" t="s">
         <v>196</v>
@@ -10720,16 +11005,20 @@
       <c r="F16" t="s">
         <v>230</v>
       </c>
-      <c r="G16">
-        <v>34</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0.99859943977591037</v>
-      </c>
-      <c r="J16">
+      <c r="G16" s="14">
+        <f>[1]Sheet1!$E8/[1]Sheet1!$D8</f>
+        <v>33.61904761904762</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="43">
+        <f>[1]Sheet1!$F8</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="62">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K16">
@@ -10776,8 +11065,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17">
-        <v>51764514</v>
+      <c r="A17" s="14">
+        <f>[1]Sheet1!$C9</f>
+        <v>51725134</v>
       </c>
       <c r="B17" t="s">
         <v>195</v>
@@ -10794,16 +11084,20 @@
       <c r="F17" t="s">
         <v>230</v>
       </c>
-      <c r="G17">
-        <v>9.5</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
+      <c r="G17" s="14">
+        <f>[1]Sheet1!$E9/[1]Sheet1!$D9</f>
+        <v>39.1875</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="43">
+        <f>[1]Sheet1!$F9</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="62">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K17">
@@ -10850,7 +11144,8 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18">
+      <c r="A18" s="14">
+        <f>[1]Sheet1!$C10</f>
         <v>51743021</v>
       </c>
       <c r="B18" t="s">
@@ -10868,16 +11163,20 @@
       <c r="F18" t="s">
         <v>230</v>
       </c>
-      <c r="G18">
-        <v>34.61904761904762</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="G18" s="14">
+        <f>[1]Sheet1!$E10/[1]Sheet1!$D10</f>
+        <v>36.5</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="43">
+        <f>[1]Sheet1!$F10</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="62">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K18">
@@ -10922,6 +11221,395 @@
       <c r="X18">
         <v>2</v>
       </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="14">
+        <f>[1]Sheet1!$C11</f>
+        <v>51803955</v>
+      </c>
+      <c r="G19" s="14">
+        <f>[1]Sheet1!$E11/[1]Sheet1!$D11</f>
+        <v>33.466666666666669</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="43">
+        <f>[1]Sheet1!$F11</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="62">
+        <f>IF(I19&gt;98%,5,IF(AND(I19&gt;=97%,I19&lt;=97.99%),4,IF(AND(I19&gt;=95%,I19&lt;=96.99%),3,IF(I19&lt;95%,1,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14">
+        <v>5</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0.98194444444444495</v>
+      </c>
+      <c r="N19" s="14">
+        <v>4.2777777777777803</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1</v>
+      </c>
+      <c r="P19" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0.20724832915725599</v>
+      </c>
+      <c r="R19" s="14">
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="S19" s="14">
+        <v>1</v>
+      </c>
+      <c r="T19" s="14">
+        <v>5</v>
+      </c>
+      <c r="U19" s="14">
+        <v>1</v>
+      </c>
+      <c r="V19" s="14">
+        <v>5</v>
+      </c>
+      <c r="W19" s="14">
+        <v>3.8955555555555499</v>
+      </c>
+      <c r="X19" s="14">
+        <v>3.8888888888888902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="14">
+        <f>[1]Sheet1!$C12</f>
+        <v>51697023</v>
+      </c>
+      <c r="G20" s="14">
+        <f>[1]Sheet1!$E12/[1]Sheet1!$D12</f>
+        <v>29.647058823529413</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="43">
+        <f>[1]Sheet1!$F12</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="62">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K20" s="14">
+        <v>1</v>
+      </c>
+      <c r="L20" s="14">
+        <v>5</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0.97944444444444401</v>
+      </c>
+      <c r="N20" s="14">
+        <v>4.1777777777777798</v>
+      </c>
+      <c r="O20" s="14">
+        <v>1</v>
+      </c>
+      <c r="P20" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0.226049081037028</v>
+      </c>
+      <c r="R20" s="14">
+        <v>3.4666666666666601</v>
+      </c>
+      <c r="S20" s="14">
+        <v>1</v>
+      </c>
+      <c r="T20" s="14">
+        <v>5</v>
+      </c>
+      <c r="U20" s="14">
+        <v>1</v>
+      </c>
+      <c r="V20" s="14">
+        <v>5</v>
+      </c>
+      <c r="W20" s="14">
+        <v>3.9008888888888902</v>
+      </c>
+      <c r="X20" s="14">
+        <v>3.75555555555556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="14">
+        <f>[1]Sheet1!$C13</f>
+        <v>51803947</v>
+      </c>
+      <c r="G21" s="14">
+        <f>[1]Sheet1!$E13/[1]Sheet1!$D13</f>
+        <v>38.285714285714285</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="43">
+        <f>[1]Sheet1!$F13</f>
+        <v>0.99743260590500638</v>
+      </c>
+      <c r="J21" s="62">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14">
+        <v>5</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0.97694444444444495</v>
+      </c>
+      <c r="N21" s="14">
+        <v>4.0777777777777802</v>
+      </c>
+      <c r="O21" s="14">
+        <v>1</v>
+      </c>
+      <c r="P21" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0.24484983291680101</v>
+      </c>
+      <c r="R21" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="S21" s="14">
+        <v>1</v>
+      </c>
+      <c r="T21" s="14">
+        <v>5</v>
+      </c>
+      <c r="U21" s="14">
+        <v>1</v>
+      </c>
+      <c r="V21" s="14">
+        <v>5</v>
+      </c>
+      <c r="W21" s="14">
+        <v>3.9062222222222198</v>
+      </c>
+      <c r="X21" s="14">
+        <v>3.62222222222222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="14">
+        <f>[1]Sheet1!$C14</f>
+        <v>51718193</v>
+      </c>
+      <c r="G22" s="14">
+        <f>[1]Sheet1!$E14/[1]Sheet1!$D14</f>
+        <v>37</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="43">
+        <f>[1]Sheet1!$F14</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="62">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K22" s="14">
+        <v>1</v>
+      </c>
+      <c r="L22" s="14">
+        <v>5</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0.974444444444444</v>
+      </c>
+      <c r="N22" s="14">
+        <v>3.9777777777777801</v>
+      </c>
+      <c r="O22" s="14">
+        <v>1</v>
+      </c>
+      <c r="P22" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0.263650584796573</v>
+      </c>
+      <c r="R22" s="14">
+        <v>3.7333333333333298</v>
+      </c>
+      <c r="S22" s="14">
+        <v>1</v>
+      </c>
+      <c r="T22" s="14">
+        <v>5</v>
+      </c>
+      <c r="U22" s="14">
+        <v>1</v>
+      </c>
+      <c r="V22" s="14">
+        <v>5</v>
+      </c>
+      <c r="W22" s="14">
+        <v>3.9115555555555499</v>
+      </c>
+      <c r="X22" s="14">
+        <v>3.4888888888888898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="14">
+        <f>[1]Sheet1!$C15</f>
+        <v>51765992</v>
+      </c>
+      <c r="G23" s="14">
+        <f>[1]Sheet1!$E15/[1]Sheet1!$D15</f>
+        <v>52.666666666666664</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="43">
+        <f>[1]Sheet1!$F15</f>
+        <v>0.99811320754716981</v>
+      </c>
+      <c r="J23" s="62">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K23" s="14">
+        <v>1</v>
+      </c>
+      <c r="L23" s="14">
+        <v>5</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0.97194444444444394</v>
+      </c>
+      <c r="N23" s="14">
+        <v>3.87777777777778</v>
+      </c>
+      <c r="O23" s="14">
+        <v>1</v>
+      </c>
+      <c r="P23" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0.28245133667634498</v>
+      </c>
+      <c r="R23" s="14">
+        <v>3.86666666666666</v>
+      </c>
+      <c r="S23" s="14">
+        <v>1</v>
+      </c>
+      <c r="T23" s="14">
+        <v>5</v>
+      </c>
+      <c r="U23" s="14">
+        <v>1</v>
+      </c>
+      <c r="V23" s="14">
+        <v>5</v>
+      </c>
+      <c r="W23" s="14">
+        <v>3.9168888888888902</v>
+      </c>
+      <c r="X23" s="14">
+        <v>3.3555555555555601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="14">
+        <f>[1]Sheet1!$C16</f>
+        <v>51721824</v>
+      </c>
+      <c r="G24" s="14">
+        <f>[1]Sheet1!$E16/[1]Sheet1!D16</f>
+        <v>42.7</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I24" s="43">
+        <f>[1]Sheet1!$F16</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="62">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14">
+        <v>5</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0.969444444444444</v>
+      </c>
+      <c r="N24" s="14">
+        <v>3.7777777777777799</v>
+      </c>
+      <c r="O24" s="14">
+        <v>1</v>
+      </c>
+      <c r="P24" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0.30125208855611801</v>
+      </c>
+      <c r="R24" s="14">
+        <v>4</v>
+      </c>
+      <c r="S24" s="14">
+        <v>1</v>
+      </c>
+      <c r="T24" s="14">
+        <v>5</v>
+      </c>
+      <c r="U24" s="14">
+        <v>1</v>
+      </c>
+      <c r="V24" s="14">
+        <v>5</v>
+      </c>
+      <c r="W24" s="14">
+        <v>3.9222222222222198</v>
+      </c>
+      <c r="X24" s="14">
+        <v>3.2222222222222201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="J25" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12121,23 +12809,23 @@
     <row r="1" spans="1:30" s="14" customFormat="1" ht="15"/>
     <row r="2" spans="1:30" s="14" customFormat="1" ht="15">
       <c r="C2" s="52"/>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="132" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
     </row>
     <row r="3" spans="1:30" s="14" customFormat="1" ht="15">
       <c r="C3" s="35" t="s">
@@ -12155,11 +12843,11 @@
       <c r="K3" s="131"/>
       <c r="L3" s="131"/>
       <c r="M3" s="127"/>
-      <c r="N3" s="132">
+      <c r="N3" s="134">
         <v>0.2</v>
       </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="134"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="136"/>
     </row>
     <row r="4" spans="1:30" s="14" customFormat="1" ht="15">
       <c r="C4" s="35" t="s">
@@ -12169,19 +12857,19 @@
         <v>67</v>
       </c>
       <c r="E4" s="127"/>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138" t="s">
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138" t="s">
+      <c r="J4" s="132"/>
+      <c r="K4" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="138"/>
+      <c r="L4" s="132"/>
       <c r="M4" s="58" t="s">
         <v>100</v>
       </c>
@@ -12201,19 +12889,19 @@
         <v>0.35</v>
       </c>
       <c r="E5" s="127"/>
-      <c r="F5" s="139">
+      <c r="F5" s="133">
         <v>0.25</v>
       </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139">
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133">
         <v>0.15</v>
       </c>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139">
+      <c r="J5" s="133"/>
+      <c r="K5" s="133">
         <v>0.1</v>
       </c>
-      <c r="L5" s="139"/>
+      <c r="L5" s="133"/>
       <c r="M5" s="57">
         <v>0.15</v>
       </c>
@@ -12281,11 +12969,11 @@
       <c r="E7" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
       <c r="I7" s="54" t="s">
         <v>25</v>
       </c>
@@ -12615,11 +13303,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O4:P4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
@@ -12629,6 +13312,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
